--- a/server/templates/template.xlsx
+++ b/server/templates/template.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Ngày chứng từ</t>
   </si>
@@ -47,24 +47,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Qty</t>
-  </si>
-  <si>
     <t>{{company}}</t>
   </si>
   <si>
-    <t>{{tb:table1.date}}</t>
-  </si>
-  <si>
-    <t>{{tb:table1.number}}</t>
-  </si>
-  <si>
-    <t>{{tb:table1.description}}</t>
-  </si>
-  <si>
-    <t>{{tb:table1.qty}}</t>
-  </si>
-  <si>
     <t>USER CREATED</t>
   </si>
   <si>
@@ -75,6 +60,18 @@
   </si>
   <si>
     <t>{{address}}</t>
+  </si>
+  <si>
+    <t>{{tb:table1.startDate}}</t>
+  </si>
+  <si>
+    <t>{{tb:table1._id}}</t>
+  </si>
+  <si>
+    <t>Contract Value</t>
+  </si>
+  <si>
+    <t>{{tb:table1.title}}</t>
   </si>
 </sst>
 </file>
@@ -510,15 +507,15 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -529,12 +526,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -562,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -573,16 +570,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -591,17 +588,17 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D11" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
